--- a/public/import/weekly_template_Non Result (RSH FL KASIR ).xlsx
+++ b/public/import/weekly_template_Non Result (RSH FL KASIR ).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>year</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Melakukan laporan pertanggung jawaban LPJ Kepada Coordinator atau Kepala toko Setiap minggu nya </t>
-  </si>
-  <si>
-    <t>24</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -103,36 +100,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -441,14 +422,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="82.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="3" max="3" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,129 +444,121 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
